--- a/Excel2Json/Test/item.xlsx
+++ b/Excel2Json/Test/item.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="148">
   <si>
     <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,9 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>可以用于美队升星的神奇碎片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +230,6 @@
   </si>
   <si>
     <t>可以用于蜘蛛侠升星的碎片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,6 +627,18 @@
   </si>
   <si>
     <t>可以用于灭霸升星的碎片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[5000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1079,14 +1084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
@@ -1095,8 +1100,8 @@
     <col min="11" max="11" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="2"/>
     <col min="14" max="14" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2"/>
+    <col min="15" max="15" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="12.625" style="2" customWidth="1"/>
     <col min="19" max="19" width="13" style="2" customWidth="1"/>
     <col min="20" max="21" width="12.75" style="2" customWidth="1"/>
@@ -1105,19 +1110,19 @@
   <sheetData>
     <row r="1" spans="1:21" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1144,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -1153,19 +1158,19 @@
         <v>12</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
@@ -1221,16 +1226,16 @@
         <v>13</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -1238,10 +1243,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -1277,45 +1282,45 @@
         <v>2</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>18</v>
@@ -1324,184 +1329,184 @@
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="Q4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="O5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="O7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1509,10 +1514,10 @@
         <v>11102</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -1547,10 +1552,10 @@
         <v>3</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1558,10 +1563,10 @@
         <v>11105</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
@@ -1596,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1607,10 +1612,10 @@
         <v>11109</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -1645,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7"/>
     </row>
@@ -1654,10 +1659,10 @@
         <v>11110</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -1692,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7"/>
     </row>
@@ -1701,10 +1706,10 @@
         <v>11104</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
@@ -1739,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="7"/>
     </row>
@@ -1748,10 +1753,10 @@
         <v>11103</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -1786,10 +1791,10 @@
         <v>3</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1797,10 +1802,10 @@
         <v>11115</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -1835,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -1846,10 +1851,10 @@
         <v>11116</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -1884,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7"/>
     </row>
@@ -1893,10 +1898,10 @@
         <v>11117</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
@@ -1931,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" s="7"/>
     </row>
@@ -1940,10 +1945,10 @@
         <v>11118</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -1978,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7"/>
     </row>
@@ -1987,10 +1992,10 @@
         <v>11127</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -2025,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P18" s="7"/>
     </row>
@@ -2034,10 +2039,10 @@
         <v>21001</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7">
         <v>2</v>
@@ -2072,10 +2077,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2083,10 +2088,10 @@
         <v>21002</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -2121,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2132,10 +2137,10 @@
         <v>21003</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="7">
         <v>2</v>
@@ -2170,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2181,10 +2186,10 @@
         <v>21004</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -2219,10 +2224,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2230,10 +2235,10 @@
         <v>21005</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="7">
         <v>2</v>
@@ -2268,10 +2273,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2279,10 +2284,10 @@
         <v>21006</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -2317,10 +2322,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2328,10 +2333,10 @@
         <v>21007</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7">
         <v>2</v>
@@ -2366,10 +2371,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2377,10 +2382,10 @@
         <v>21008</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -2415,10 +2420,10 @@
         <v>2</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2426,10 +2431,10 @@
         <v>21009</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="7">
         <v>2</v>
@@ -2464,10 +2469,10 @@
         <v>2</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2475,10 +2480,10 @@
         <v>21010</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -2513,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2524,10 +2529,10 @@
         <v>21011</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="7">
         <v>2</v>
@@ -2562,10 +2567,10 @@
         <v>2</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2573,10 +2578,10 @@
         <v>21012</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="7">
         <v>2</v>
@@ -2611,10 +2616,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2622,10 +2627,10 @@
         <v>31001</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="7">
         <v>3</v>
@@ -2662,25 +2667,25 @@
         <v>1</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q31" s="6">
         <v>100</v>
       </c>
       <c r="R31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="T31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U31" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2688,10 +2693,10 @@
         <v>31002</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -2728,25 +2733,25 @@
         <v>1</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="6">
         <v>300</v>
       </c>
       <c r="R32" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S32" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="T32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2754,19 +2759,19 @@
         <v>31003</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2794,42 +2799,42 @@
         <v>1</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="6">
         <v>1000</v>
       </c>
       <c r="R33" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S33" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="T33" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="U33" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>RIGHT(LEFT(A34,2),1)</f>
@@ -2839,48 +2844,48 @@
         <v>1</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O34" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="P34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q34" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D35" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2890,48 +2895,48 @@
         <v>1</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2947,42 +2952,42 @@
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L36" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="M36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="G37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2998,42 +3003,42 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="P37" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="Q37" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3043,31 +3048,31 @@
         <v>1</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
